--- a/NarXL/NarXL_data_compiled.xlsx
+++ b/NarXL/NarXL_data_compiled.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rbutc\Desktop\Rice\Research\Fall2021\paper\MATLAB\NarXL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rbutc\Desktop\Rice\Research\Spring2022\paper\Data\NarXL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73CCEBC3-E565-4C6A-8311-5B7AFEADFDC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C6307D3-60F6-4C68-8AD6-4D4CC02527FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="1" activeTab="7" xr2:uid="{FD9CBF0D-F0B6-4794-8A20-B3D7D5D056FE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="10" xr2:uid="{FD9CBF0D-F0B6-4794-8A20-B3D7D5D056FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,9 +21,11 @@
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
     <sheet name="211017" sheetId="7" r:id="rId7"/>
     <sheet name="211027" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet7" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet8" sheetId="10" r:id="rId10"/>
+    <sheet name="Sheet9" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="56">
   <si>
     <t>Strain</t>
   </si>
@@ -209,6 +211,24 @@
   <si>
     <t>time</t>
   </si>
+  <si>
+    <t>22/03/07</t>
+  </si>
+  <si>
+    <t>Absorbance 600nm</t>
+  </si>
+  <si>
+    <t>SPL17</t>
+  </si>
+  <si>
+    <t>SPL18</t>
+  </si>
+  <si>
+    <t>22/04/20</t>
+  </si>
+  <si>
+    <t>22/04/27</t>
+  </si>
 </sst>
 </file>
 
@@ -247,7 +267,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -260,8 +280,74 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF247CBD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF60A0D1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9CC5E5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBAD7EF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8DBCE0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE8F3FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7EB2DB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6FA9D6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3385C2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFABCEEA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5197CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -368,11 +454,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -416,6 +517,12 @@
     <xf numFmtId="47" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -426,11 +533,43 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -748,7 +887,7 @@
   <dimension ref="A1:U43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -760,18 +899,18 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
       <c r="L1" s="8" t="s">
         <v>25</v>
       </c>
@@ -781,10 +920,10 @@
       <c r="N1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="22" t="s">
+      <c r="O1" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="P1" s="22"/>
+      <c r="P1" s="26"/>
       <c r="Q1" s="9"/>
       <c r="R1" s="9"/>
       <c r="S1" s="9"/>
@@ -810,19 +949,19 @@
       <c r="F2" s="9">
         <v>128</v>
       </c>
-      <c r="G2" s="23">
+      <c r="G2" s="27">
         <v>32</v>
       </c>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="22">
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="26">
         <v>32</v>
       </c>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
       <c r="P2" s="9">
         <v>0</v>
       </c>
@@ -836,13 +975,13 @@
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="23">
+      <c r="B3" s="27">
         <v>4.8</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
       <c r="G3">
         <v>4.8</v>
       </c>
@@ -858,41 +997,41 @@
       <c r="K3">
         <v>12</v>
       </c>
-      <c r="L3" s="23">
+      <c r="L3" s="27">
         <v>6</v>
       </c>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21" t="s">
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="M4" s="21"/>
+      <c r="M4" s="25"/>
       <c r="N4" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="O4" s="21" t="s">
+      <c r="O4" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="P4" s="21"/>
+      <c r="P4" s="25"/>
       <c r="Q4" s="11"/>
       <c r="R4" s="11"/>
       <c r="S4" s="11"/>
@@ -2821,11 +2960,2983 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FC5D70A-6F59-4608-AF66-95642E4CCD67}">
+  <dimension ref="A1:X43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:K4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="24"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="27">
+        <v>100</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="24">
+        <v>4.8</v>
+      </c>
+      <c r="C3" s="24">
+        <v>6</v>
+      </c>
+      <c r="D3" s="24">
+        <v>7.2</v>
+      </c>
+      <c r="E3" s="24">
+        <v>9.6</v>
+      </c>
+      <c r="F3" s="24">
+        <v>12</v>
+      </c>
+      <c r="G3" s="24">
+        <v>4.8</v>
+      </c>
+      <c r="H3" s="24">
+        <v>6</v>
+      </c>
+      <c r="I3" s="24">
+        <v>7.2</v>
+      </c>
+      <c r="J3" s="24">
+        <v>9.6</v>
+      </c>
+      <c r="K3" s="24">
+        <v>12</v>
+      </c>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="16"/>
+      <c r="U3" s="16"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A4" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="O4" s="24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A5" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O5" s="29">
+        <v>0.191</v>
+      </c>
+      <c r="P5" s="29">
+        <v>0.193</v>
+      </c>
+      <c r="Q5" s="35">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="R5" s="31">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="S5" s="30">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="T5" s="41">
+        <v>0.182</v>
+      </c>
+      <c r="U5" s="33">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="V5" s="34">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="W5" s="40">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="X5" s="35">
+        <v>0.17299999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="4">
+        <v>28478</v>
+      </c>
+      <c r="C6" s="4">
+        <v>43963</v>
+      </c>
+      <c r="D6" s="4">
+        <v>55008</v>
+      </c>
+      <c r="E6" s="4">
+        <v>59472</v>
+      </c>
+      <c r="F6" s="4">
+        <v>61925</v>
+      </c>
+      <c r="G6" s="4">
+        <v>37710</v>
+      </c>
+      <c r="H6" s="4">
+        <v>58715</v>
+      </c>
+      <c r="I6" s="4">
+        <v>65514</v>
+      </c>
+      <c r="J6" s="4">
+        <v>68411</v>
+      </c>
+      <c r="K6" s="4">
+        <v>73977</v>
+      </c>
+      <c r="M6" s="5">
+        <v>0</v>
+      </c>
+      <c r="N6" s="38"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B7" s="4">
+        <v>28617</v>
+      </c>
+      <c r="C7" s="4">
+        <v>45130</v>
+      </c>
+      <c r="D7" s="4">
+        <v>56536</v>
+      </c>
+      <c r="E7" s="4">
+        <v>62073</v>
+      </c>
+      <c r="F7" s="4">
+        <v>62899</v>
+      </c>
+      <c r="G7" s="4">
+        <v>38315</v>
+      </c>
+      <c r="H7" s="4">
+        <v>60348</v>
+      </c>
+      <c r="I7" s="4">
+        <v>67687</v>
+      </c>
+      <c r="J7" s="4">
+        <v>71131</v>
+      </c>
+      <c r="K7" s="4">
+        <v>73198</v>
+      </c>
+      <c r="M7" s="5">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="N7" s="38"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8" s="5">
+        <v>3.0671296296296297E-3</v>
+      </c>
+      <c r="N8" s="38"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B9" s="4">
+        <v>24522</v>
+      </c>
+      <c r="C9" s="4">
+        <v>38612</v>
+      </c>
+      <c r="D9" s="4">
+        <v>49719</v>
+      </c>
+      <c r="E9" s="4">
+        <v>53612</v>
+      </c>
+      <c r="F9" s="4">
+        <v>52709</v>
+      </c>
+      <c r="G9" s="4">
+        <v>32637</v>
+      </c>
+      <c r="H9" s="4">
+        <v>52300</v>
+      </c>
+      <c r="I9" s="4">
+        <v>58927</v>
+      </c>
+      <c r="J9" s="4">
+        <v>60329</v>
+      </c>
+      <c r="K9" s="4">
+        <v>60990</v>
+      </c>
+      <c r="M9" s="5">
+        <v>3.3449074074074071E-3</v>
+      </c>
+      <c r="N9" s="38"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B10" s="4">
+        <v>24634</v>
+      </c>
+      <c r="C10" s="4">
+        <v>38776</v>
+      </c>
+      <c r="D10" s="4">
+        <v>50663</v>
+      </c>
+      <c r="E10" s="4">
+        <v>55144</v>
+      </c>
+      <c r="F10" s="4">
+        <v>56016</v>
+      </c>
+      <c r="G10" s="4">
+        <v>32888</v>
+      </c>
+      <c r="H10" s="4">
+        <v>52569</v>
+      </c>
+      <c r="I10" s="4">
+        <v>59063</v>
+      </c>
+      <c r="J10" s="4">
+        <v>61402</v>
+      </c>
+      <c r="K10" s="4">
+        <v>64379</v>
+      </c>
+      <c r="M10" s="5">
+        <v>6.122685185185185E-3</v>
+      </c>
+      <c r="N10" s="38"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B11" s="4">
+        <v>24280</v>
+      </c>
+      <c r="C11" s="4">
+        <v>39151</v>
+      </c>
+      <c r="D11" s="4">
+        <v>50835</v>
+      </c>
+      <c r="E11" s="4">
+        <v>55429</v>
+      </c>
+      <c r="F11" s="4">
+        <v>56338</v>
+      </c>
+      <c r="G11" s="4">
+        <v>32882</v>
+      </c>
+      <c r="H11" s="4">
+        <v>54847</v>
+      </c>
+      <c r="I11" s="4">
+        <v>61390</v>
+      </c>
+      <c r="J11" s="4">
+        <v>63456</v>
+      </c>
+      <c r="K11" s="4">
+        <v>66386</v>
+      </c>
+      <c r="M11" s="5">
+        <v>8.9004629629629625E-3</v>
+      </c>
+      <c r="N11" s="38"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B12" s="4">
+        <v>23701</v>
+      </c>
+      <c r="C12" s="4">
+        <v>39307</v>
+      </c>
+      <c r="D12" s="4">
+        <v>51179</v>
+      </c>
+      <c r="E12" s="4">
+        <v>56263</v>
+      </c>
+      <c r="F12" s="4">
+        <v>58542</v>
+      </c>
+      <c r="G12" s="4">
+        <v>32544</v>
+      </c>
+      <c r="H12" s="4">
+        <v>56259</v>
+      </c>
+      <c r="I12" s="4">
+        <v>63594</v>
+      </c>
+      <c r="J12" s="4">
+        <v>65928</v>
+      </c>
+      <c r="K12" s="4">
+        <v>66386</v>
+      </c>
+      <c r="M12" s="5">
+        <v>1.1678240740740741E-2</v>
+      </c>
+      <c r="N12" s="38"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B13" s="4">
+        <v>23114</v>
+      </c>
+      <c r="C13" s="4">
+        <v>38740</v>
+      </c>
+      <c r="D13" s="4">
+        <v>50952</v>
+      </c>
+      <c r="E13" s="4">
+        <v>56986</v>
+      </c>
+      <c r="F13" s="4">
+        <v>56759</v>
+      </c>
+      <c r="G13" s="4">
+        <v>31976</v>
+      </c>
+      <c r="H13" s="4">
+        <v>56016</v>
+      </c>
+      <c r="I13" s="4">
+        <v>63735</v>
+      </c>
+      <c r="J13" s="4">
+        <v>66756</v>
+      </c>
+      <c r="K13" s="4">
+        <v>66943</v>
+      </c>
+      <c r="M13" s="5">
+        <v>1.4456018518518519E-2</v>
+      </c>
+      <c r="N13" s="38"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B14" s="4">
+        <v>23464</v>
+      </c>
+      <c r="C14" s="4">
+        <v>38662</v>
+      </c>
+      <c r="D14" s="4">
+        <v>51102</v>
+      </c>
+      <c r="E14" s="4">
+        <v>56765</v>
+      </c>
+      <c r="F14" s="4">
+        <v>57278</v>
+      </c>
+      <c r="G14" s="4">
+        <v>31833</v>
+      </c>
+      <c r="H14" s="4">
+        <v>55595</v>
+      </c>
+      <c r="I14" s="4">
+        <v>64817</v>
+      </c>
+      <c r="J14" s="4">
+        <v>67335</v>
+      </c>
+      <c r="K14" s="4">
+        <v>68877</v>
+      </c>
+      <c r="M14" s="5">
+        <v>1.7233796296296296E-2</v>
+      </c>
+      <c r="N14" s="38"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B15" s="4">
+        <v>22860</v>
+      </c>
+      <c r="C15" s="4">
+        <v>39027</v>
+      </c>
+      <c r="D15" s="4">
+        <v>51710</v>
+      </c>
+      <c r="E15" s="4">
+        <v>56822</v>
+      </c>
+      <c r="F15" s="4">
+        <v>59016</v>
+      </c>
+      <c r="G15" s="4">
+        <v>32192</v>
+      </c>
+      <c r="H15" s="4">
+        <v>55903</v>
+      </c>
+      <c r="I15" s="4">
+        <v>66134</v>
+      </c>
+      <c r="J15" s="4">
+        <v>68820</v>
+      </c>
+      <c r="K15" s="4">
+        <v>69712</v>
+      </c>
+      <c r="M15" s="5">
+        <v>2.0011574074074074E-2</v>
+      </c>
+      <c r="N15" s="38"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B16" s="4">
+        <v>23321</v>
+      </c>
+      <c r="C16" s="4">
+        <v>39257</v>
+      </c>
+      <c r="D16" s="4">
+        <v>51494</v>
+      </c>
+      <c r="E16" s="4">
+        <v>57746</v>
+      </c>
+      <c r="F16" s="4">
+        <v>59067</v>
+      </c>
+      <c r="G16" s="4">
+        <v>32193</v>
+      </c>
+      <c r="H16" s="4">
+        <v>57027</v>
+      </c>
+      <c r="I16" s="4">
+        <v>65786</v>
+      </c>
+      <c r="J16" s="4">
+        <v>69327</v>
+      </c>
+      <c r="K16" s="4">
+        <v>71512</v>
+      </c>
+      <c r="M16" s="5">
+        <v>2.2789351851851852E-2</v>
+      </c>
+      <c r="N16" s="38"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B17" s="4">
+        <v>23465</v>
+      </c>
+      <c r="C17" s="4">
+        <v>39412</v>
+      </c>
+      <c r="D17" s="4">
+        <v>53072</v>
+      </c>
+      <c r="E17" s="4">
+        <v>58283</v>
+      </c>
+      <c r="F17" s="4">
+        <v>59154</v>
+      </c>
+      <c r="G17" s="4">
+        <v>33015</v>
+      </c>
+      <c r="H17" s="4">
+        <v>57365</v>
+      </c>
+      <c r="I17" s="4">
+        <v>67353</v>
+      </c>
+      <c r="J17" s="4">
+        <v>71550</v>
+      </c>
+      <c r="K17" s="4">
+        <v>72053</v>
+      </c>
+      <c r="M17" s="5">
+        <v>2.5567129629629634E-2</v>
+      </c>
+      <c r="N17" s="38"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B18" s="4">
+        <v>23574</v>
+      </c>
+      <c r="C18" s="4">
+        <v>39740</v>
+      </c>
+      <c r="D18" s="4">
+        <v>52696</v>
+      </c>
+      <c r="E18" s="4">
+        <v>59322</v>
+      </c>
+      <c r="F18" s="4">
+        <v>61409</v>
+      </c>
+      <c r="G18" s="4">
+        <v>33315</v>
+      </c>
+      <c r="H18" s="4">
+        <v>58817</v>
+      </c>
+      <c r="I18" s="4">
+        <v>68338</v>
+      </c>
+      <c r="J18" s="4">
+        <v>71182</v>
+      </c>
+      <c r="K18" s="4">
+        <v>73097</v>
+      </c>
+      <c r="M18" s="5">
+        <v>2.8344907407407412E-2</v>
+      </c>
+      <c r="N18" s="38"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B19" s="4">
+        <v>24043</v>
+      </c>
+      <c r="C19" s="4">
+        <v>40842</v>
+      </c>
+      <c r="D19" s="4">
+        <v>53933</v>
+      </c>
+      <c r="E19" s="4">
+        <v>60276</v>
+      </c>
+      <c r="F19" s="4">
+        <v>62886</v>
+      </c>
+      <c r="G19" s="4">
+        <v>33756</v>
+      </c>
+      <c r="H19" s="4">
+        <v>59709</v>
+      </c>
+      <c r="I19" s="4">
+        <v>69604</v>
+      </c>
+      <c r="J19" s="4">
+        <v>72629</v>
+      </c>
+      <c r="K19" s="4">
+        <v>75030</v>
+      </c>
+      <c r="M19" s="5">
+        <v>3.1122685185185187E-2</v>
+      </c>
+      <c r="N19" s="38"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B20" s="4">
+        <v>24303</v>
+      </c>
+      <c r="C20" s="4">
+        <v>40852</v>
+      </c>
+      <c r="D20" s="4">
+        <v>54608</v>
+      </c>
+      <c r="E20" s="4">
+        <v>61511</v>
+      </c>
+      <c r="F20" s="4">
+        <v>62368</v>
+      </c>
+      <c r="G20" s="4">
+        <v>34304</v>
+      </c>
+      <c r="H20" s="4">
+        <v>61187</v>
+      </c>
+      <c r="I20" s="4">
+        <v>70646</v>
+      </c>
+      <c r="J20" s="4">
+        <v>74205</v>
+      </c>
+      <c r="K20" s="4">
+        <v>76116</v>
+      </c>
+      <c r="M20" s="5">
+        <v>3.3900462962962966E-2</v>
+      </c>
+      <c r="N20" s="38"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B21" s="4">
+        <v>24603</v>
+      </c>
+      <c r="C21" s="4">
+        <v>41795</v>
+      </c>
+      <c r="D21" s="4">
+        <v>56778</v>
+      </c>
+      <c r="E21" s="4">
+        <v>62639</v>
+      </c>
+      <c r="F21" s="4">
+        <v>63851</v>
+      </c>
+      <c r="G21" s="4">
+        <v>34535</v>
+      </c>
+      <c r="H21" s="4">
+        <v>62102</v>
+      </c>
+      <c r="I21" s="4">
+        <v>72342</v>
+      </c>
+      <c r="J21" s="4">
+        <v>75748</v>
+      </c>
+      <c r="K21" s="4">
+        <v>77668</v>
+      </c>
+      <c r="M21" s="5">
+        <v>3.667824074074074E-2</v>
+      </c>
+      <c r="N21" s="38"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B22" s="4">
+        <v>24677</v>
+      </c>
+      <c r="C22" s="4">
+        <v>42593</v>
+      </c>
+      <c r="D22" s="4">
+        <v>56679</v>
+      </c>
+      <c r="E22" s="4">
+        <v>64336</v>
+      </c>
+      <c r="F22" s="4">
+        <v>66451</v>
+      </c>
+      <c r="G22" s="4">
+        <v>34959</v>
+      </c>
+      <c r="H22" s="4">
+        <v>63688</v>
+      </c>
+      <c r="I22" s="4">
+        <v>73803</v>
+      </c>
+      <c r="J22" s="4">
+        <v>77861</v>
+      </c>
+      <c r="K22" s="4">
+        <v>78890</v>
+      </c>
+      <c r="M22" s="5">
+        <v>3.9456018518518522E-2</v>
+      </c>
+      <c r="N22" s="38"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B23" s="4">
+        <v>24827</v>
+      </c>
+      <c r="C23" s="4">
+        <v>43183</v>
+      </c>
+      <c r="D23" s="4">
+        <v>58143</v>
+      </c>
+      <c r="E23" s="4">
+        <v>65372</v>
+      </c>
+      <c r="F23" s="4">
+        <v>66844</v>
+      </c>
+      <c r="G23" s="4">
+        <v>35340</v>
+      </c>
+      <c r="H23" s="4">
+        <v>65410</v>
+      </c>
+      <c r="I23" s="4">
+        <v>75683</v>
+      </c>
+      <c r="J23" s="4">
+        <v>78942</v>
+      </c>
+      <c r="K23" s="4">
+        <v>81223</v>
+      </c>
+      <c r="M23" s="5"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B24" s="4">
+        <v>24881</v>
+      </c>
+      <c r="C24" s="4">
+        <v>43775</v>
+      </c>
+      <c r="D24" s="4">
+        <v>59100</v>
+      </c>
+      <c r="E24" s="4">
+        <v>67119</v>
+      </c>
+      <c r="F24" s="4">
+        <v>69411</v>
+      </c>
+      <c r="G24" s="4">
+        <v>35490</v>
+      </c>
+      <c r="H24" s="4">
+        <v>66511</v>
+      </c>
+      <c r="I24" s="4">
+        <v>76729</v>
+      </c>
+      <c r="J24" s="4">
+        <v>81071</v>
+      </c>
+      <c r="K24" s="4">
+        <v>83575</v>
+      </c>
+      <c r="M24" s="5"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="4">
+        <v>13519</v>
+      </c>
+      <c r="C25" s="4">
+        <v>21032</v>
+      </c>
+      <c r="D25" s="4">
+        <v>26670</v>
+      </c>
+      <c r="E25" s="4">
+        <v>29092</v>
+      </c>
+      <c r="F25" s="4">
+        <v>30700</v>
+      </c>
+      <c r="G25" s="4">
+        <v>17999</v>
+      </c>
+      <c r="H25" s="4">
+        <v>28622</v>
+      </c>
+      <c r="I25" s="4">
+        <v>32492</v>
+      </c>
+      <c r="J25" s="4">
+        <v>34172</v>
+      </c>
+      <c r="K25" s="4">
+        <v>37361</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B26" s="4">
+        <v>13541</v>
+      </c>
+      <c r="C26" s="4">
+        <v>21581</v>
+      </c>
+      <c r="D26" s="4">
+        <v>27414</v>
+      </c>
+      <c r="E26" s="4">
+        <v>30441</v>
+      </c>
+      <c r="F26" s="4">
+        <v>31211</v>
+      </c>
+      <c r="G26" s="4">
+        <v>18256</v>
+      </c>
+      <c r="H26" s="4">
+        <v>29465</v>
+      </c>
+      <c r="I26" s="4">
+        <v>33499</v>
+      </c>
+      <c r="J26" s="4">
+        <v>35674</v>
+      </c>
+      <c r="K26" s="4">
+        <v>36841</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B27" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B28" s="4">
+        <v>11690</v>
+      </c>
+      <c r="C28" s="4">
+        <v>18426</v>
+      </c>
+      <c r="D28" s="4">
+        <v>23996</v>
+      </c>
+      <c r="E28" s="4">
+        <v>26157</v>
+      </c>
+      <c r="F28" s="4">
+        <v>25909</v>
+      </c>
+      <c r="G28" s="4">
+        <v>15576</v>
+      </c>
+      <c r="H28" s="4">
+        <v>25338</v>
+      </c>
+      <c r="I28" s="4">
+        <v>28912</v>
+      </c>
+      <c r="J28" s="4">
+        <v>29889</v>
+      </c>
+      <c r="K28" s="4">
+        <v>30303</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B29" s="4">
+        <v>11942</v>
+      </c>
+      <c r="C29" s="4">
+        <v>18695</v>
+      </c>
+      <c r="D29" s="4">
+        <v>24551</v>
+      </c>
+      <c r="E29" s="4">
+        <v>26980</v>
+      </c>
+      <c r="F29" s="4">
+        <v>27642</v>
+      </c>
+      <c r="G29" s="4">
+        <v>15858</v>
+      </c>
+      <c r="H29" s="4">
+        <v>25618</v>
+      </c>
+      <c r="I29" s="4">
+        <v>29128</v>
+      </c>
+      <c r="J29" s="4">
+        <v>30592</v>
+      </c>
+      <c r="K29" s="4">
+        <v>32198</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B30" s="4">
+        <v>12108</v>
+      </c>
+      <c r="C30" s="4">
+        <v>19074</v>
+      </c>
+      <c r="D30" s="4">
+        <v>24829</v>
+      </c>
+      <c r="E30" s="4">
+        <v>27228</v>
+      </c>
+      <c r="F30" s="4">
+        <v>27905</v>
+      </c>
+      <c r="G30" s="4">
+        <v>15934</v>
+      </c>
+      <c r="H30" s="4">
+        <v>26852</v>
+      </c>
+      <c r="I30" s="4">
+        <v>30393</v>
+      </c>
+      <c r="J30" s="4">
+        <v>31560</v>
+      </c>
+      <c r="K30" s="4">
+        <v>33307</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B31" s="4">
+        <v>12465</v>
+      </c>
+      <c r="C31" s="4">
+        <v>19482</v>
+      </c>
+      <c r="D31" s="4">
+        <v>25482</v>
+      </c>
+      <c r="E31" s="4">
+        <v>27911</v>
+      </c>
+      <c r="F31" s="4">
+        <v>29303</v>
+      </c>
+      <c r="G31" s="4">
+        <v>16070</v>
+      </c>
+      <c r="H31" s="4">
+        <v>27670</v>
+      </c>
+      <c r="I31" s="4">
+        <v>31463</v>
+      </c>
+      <c r="J31" s="4">
+        <v>33129</v>
+      </c>
+      <c r="K31" s="4">
+        <v>33394</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B32" s="4">
+        <v>12771</v>
+      </c>
+      <c r="C32" s="4">
+        <v>19956</v>
+      </c>
+      <c r="D32" s="4">
+        <v>26073</v>
+      </c>
+      <c r="E32" s="4">
+        <v>28716</v>
+      </c>
+      <c r="F32" s="4">
+        <v>28801</v>
+      </c>
+      <c r="G32" s="4">
+        <v>16636</v>
+      </c>
+      <c r="H32" s="4">
+        <v>27946</v>
+      </c>
+      <c r="I32" s="4">
+        <v>31730</v>
+      </c>
+      <c r="J32" s="4">
+        <v>33533</v>
+      </c>
+      <c r="K32" s="4">
+        <v>33795</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B33" s="4">
+        <v>12613</v>
+      </c>
+      <c r="C33" s="4">
+        <v>20253</v>
+      </c>
+      <c r="D33" s="4">
+        <v>26805</v>
+      </c>
+      <c r="E33" s="4">
+        <v>29184</v>
+      </c>
+      <c r="F33" s="4">
+        <v>29984</v>
+      </c>
+      <c r="G33" s="4">
+        <v>16951</v>
+      </c>
+      <c r="H33" s="4">
+        <v>28182</v>
+      </c>
+      <c r="I33" s="4">
+        <v>32571</v>
+      </c>
+      <c r="J33" s="4">
+        <v>33960</v>
+      </c>
+      <c r="K33" s="4">
+        <v>35127</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B34" s="4">
+        <v>12897</v>
+      </c>
+      <c r="C34" s="4">
+        <v>20572</v>
+      </c>
+      <c r="D34" s="4">
+        <v>26985</v>
+      </c>
+      <c r="E34" s="4">
+        <v>29726</v>
+      </c>
+      <c r="F34" s="4">
+        <v>31127</v>
+      </c>
+      <c r="G34" s="4">
+        <v>17097</v>
+      </c>
+      <c r="H34" s="4">
+        <v>28836</v>
+      </c>
+      <c r="I34" s="4">
+        <v>33316</v>
+      </c>
+      <c r="J34" s="4">
+        <v>34855</v>
+      </c>
+      <c r="K34" s="4">
+        <v>35624</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B35" s="4">
+        <v>12670</v>
+      </c>
+      <c r="C35" s="4">
+        <v>20677</v>
+      </c>
+      <c r="D35" s="4">
+        <v>27605</v>
+      </c>
+      <c r="E35" s="4">
+        <v>29998</v>
+      </c>
+      <c r="F35" s="4">
+        <v>31170</v>
+      </c>
+      <c r="G35" s="4">
+        <v>17344</v>
+      </c>
+      <c r="H35" s="4">
+        <v>29238</v>
+      </c>
+      <c r="I35" s="4">
+        <v>33628</v>
+      </c>
+      <c r="J35" s="4">
+        <v>35518</v>
+      </c>
+      <c r="K35" s="4">
+        <v>36905</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B36" s="4">
+        <v>12624</v>
+      </c>
+      <c r="C36" s="4">
+        <v>20952</v>
+      </c>
+      <c r="D36" s="4">
+        <v>27581</v>
+      </c>
+      <c r="E36" s="4">
+        <v>30905</v>
+      </c>
+      <c r="F36" s="4">
+        <v>31346</v>
+      </c>
+      <c r="G36" s="4">
+        <v>17449</v>
+      </c>
+      <c r="H36" s="4">
+        <v>29868</v>
+      </c>
+      <c r="I36" s="4">
+        <v>34252</v>
+      </c>
+      <c r="J36" s="4">
+        <v>36565</v>
+      </c>
+      <c r="K36" s="4">
+        <v>37362</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B37" s="4">
+        <v>12742</v>
+      </c>
+      <c r="C37" s="4">
+        <v>21133</v>
+      </c>
+      <c r="D37" s="4">
+        <v>28123</v>
+      </c>
+      <c r="E37" s="4">
+        <v>31061</v>
+      </c>
+      <c r="F37" s="4">
+        <v>32971</v>
+      </c>
+      <c r="G37" s="4">
+        <v>17598</v>
+      </c>
+      <c r="H37" s="4">
+        <v>30323</v>
+      </c>
+      <c r="I37" s="4">
+        <v>34975</v>
+      </c>
+      <c r="J37" s="4">
+        <v>36775</v>
+      </c>
+      <c r="K37" s="4">
+        <v>37976</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B38" s="4">
+        <v>12704</v>
+      </c>
+      <c r="C38" s="4">
+        <v>21099</v>
+      </c>
+      <c r="D38" s="4">
+        <v>28335</v>
+      </c>
+      <c r="E38" s="4">
+        <v>31601</v>
+      </c>
+      <c r="F38" s="4">
+        <v>33070</v>
+      </c>
+      <c r="G38" s="4">
+        <v>17533</v>
+      </c>
+      <c r="H38" s="4">
+        <v>30765</v>
+      </c>
+      <c r="I38" s="4">
+        <v>35764</v>
+      </c>
+      <c r="J38" s="4">
+        <v>37562</v>
+      </c>
+      <c r="K38" s="4">
+        <v>39001</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B39" s="4">
+        <v>12725</v>
+      </c>
+      <c r="C39" s="4">
+        <v>21418</v>
+      </c>
+      <c r="D39" s="4">
+        <v>28634</v>
+      </c>
+      <c r="E39" s="4">
+        <v>31963</v>
+      </c>
+      <c r="F39" s="4">
+        <v>32994</v>
+      </c>
+      <c r="G39" s="4">
+        <v>17561</v>
+      </c>
+      <c r="H39" s="4">
+        <v>31342</v>
+      </c>
+      <c r="I39" s="4">
+        <v>36313</v>
+      </c>
+      <c r="J39" s="4">
+        <v>38295</v>
+      </c>
+      <c r="K39" s="4">
+        <v>39688</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B40" s="4">
+        <v>12673</v>
+      </c>
+      <c r="C40" s="4">
+        <v>21444</v>
+      </c>
+      <c r="D40" s="4">
+        <v>28721</v>
+      </c>
+      <c r="E40" s="4">
+        <v>32456</v>
+      </c>
+      <c r="F40" s="4">
+        <v>33268</v>
+      </c>
+      <c r="G40" s="4">
+        <v>17555</v>
+      </c>
+      <c r="H40" s="4">
+        <v>31726</v>
+      </c>
+      <c r="I40" s="4">
+        <v>36976</v>
+      </c>
+      <c r="J40" s="4">
+        <v>38930</v>
+      </c>
+      <c r="K40" s="4">
+        <v>40771</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B41" s="4">
+        <v>12734</v>
+      </c>
+      <c r="C41" s="4">
+        <v>21649</v>
+      </c>
+      <c r="D41" s="4">
+        <v>29100</v>
+      </c>
+      <c r="E41" s="4">
+        <v>32737</v>
+      </c>
+      <c r="F41" s="4">
+        <v>34610</v>
+      </c>
+      <c r="G41" s="4">
+        <v>17761</v>
+      </c>
+      <c r="H41" s="4">
+        <v>32344</v>
+      </c>
+      <c r="I41" s="4">
+        <v>37709</v>
+      </c>
+      <c r="J41" s="4">
+        <v>40277</v>
+      </c>
+      <c r="K41" s="4">
+        <v>41388</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B42" s="4">
+        <v>12760</v>
+      </c>
+      <c r="C42" s="4">
+        <v>21635</v>
+      </c>
+      <c r="D42" s="4">
+        <v>29288</v>
+      </c>
+      <c r="E42" s="4">
+        <v>33265</v>
+      </c>
+      <c r="F42" s="4">
+        <v>34308</v>
+      </c>
+      <c r="G42" s="4">
+        <v>17671</v>
+      </c>
+      <c r="H42" s="4">
+        <v>32936</v>
+      </c>
+      <c r="I42" s="4">
+        <v>38465</v>
+      </c>
+      <c r="J42" s="4">
+        <v>40669</v>
+      </c>
+      <c r="K42" s="4">
+        <v>42129</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B43" s="4">
+        <v>12779</v>
+      </c>
+      <c r="C43" s="4">
+        <v>21859</v>
+      </c>
+      <c r="D43" s="4">
+        <v>29640</v>
+      </c>
+      <c r="E43" s="4">
+        <v>33842</v>
+      </c>
+      <c r="F43" s="4">
+        <v>35499</v>
+      </c>
+      <c r="G43" s="4">
+        <v>17784</v>
+      </c>
+      <c r="H43" s="4">
+        <v>33385</v>
+      </c>
+      <c r="I43" s="4">
+        <v>39250</v>
+      </c>
+      <c r="J43" s="4">
+        <v>41769</v>
+      </c>
+      <c r="K43" s="4">
+        <v>43429</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="L1:P1"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B4:K4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{428077CA-6041-497E-A695-8A76A63A6A17}">
+  <dimension ref="A1:X43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="24"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="27">
+        <v>100</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="24">
+        <v>4.8</v>
+      </c>
+      <c r="C3" s="24">
+        <v>6</v>
+      </c>
+      <c r="D3" s="24">
+        <v>7.2</v>
+      </c>
+      <c r="E3" s="24">
+        <v>9.6</v>
+      </c>
+      <c r="F3" s="24">
+        <v>12</v>
+      </c>
+      <c r="G3" s="24">
+        <v>4.8</v>
+      </c>
+      <c r="H3" s="24">
+        <v>6</v>
+      </c>
+      <c r="I3" s="24">
+        <v>7.2</v>
+      </c>
+      <c r="J3" s="24">
+        <v>9.6</v>
+      </c>
+      <c r="K3" s="24">
+        <v>12</v>
+      </c>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="16"/>
+      <c r="U3" s="16"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A4" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="O4" s="24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A5" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O5" s="33">
+        <v>0.26</v>
+      </c>
+      <c r="P5" s="31">
+        <v>0.215</v>
+      </c>
+      <c r="Q5" s="31">
+        <v>0.218</v>
+      </c>
+      <c r="R5" s="40">
+        <v>0.192</v>
+      </c>
+      <c r="S5" s="40">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="T5" s="31">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="U5" s="40">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="V5" s="40">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="W5" s="40">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="X5" s="40">
+        <v>0.20100000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="4">
+        <v>24826</v>
+      </c>
+      <c r="C6" s="4">
+        <v>46213</v>
+      </c>
+      <c r="D6" s="4">
+        <v>56383</v>
+      </c>
+      <c r="E6" s="4">
+        <v>62608</v>
+      </c>
+      <c r="F6" s="4">
+        <v>63753</v>
+      </c>
+      <c r="G6" s="4">
+        <v>32950</v>
+      </c>
+      <c r="H6" s="4">
+        <v>55776</v>
+      </c>
+      <c r="I6" s="4">
+        <v>69218</v>
+      </c>
+      <c r="J6" s="4">
+        <v>74383</v>
+      </c>
+      <c r="K6" s="4">
+        <v>76015</v>
+      </c>
+      <c r="M6" s="5">
+        <v>0</v>
+      </c>
+      <c r="N6" s="38"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B7" s="4">
+        <v>24676</v>
+      </c>
+      <c r="C7" s="4">
+        <v>47626</v>
+      </c>
+      <c r="D7" s="4">
+        <v>59663</v>
+      </c>
+      <c r="E7" s="4">
+        <v>64841</v>
+      </c>
+      <c r="F7" s="4">
+        <v>65553</v>
+      </c>
+      <c r="G7" s="4">
+        <v>32864</v>
+      </c>
+      <c r="H7" s="4">
+        <v>58830</v>
+      </c>
+      <c r="I7" s="4">
+        <v>71920</v>
+      </c>
+      <c r="J7" s="4">
+        <v>77177</v>
+      </c>
+      <c r="K7" s="4">
+        <v>77356</v>
+      </c>
+      <c r="M7" s="5">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="N7" s="38"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8" s="5">
+        <v>3.0671296296296297E-3</v>
+      </c>
+      <c r="N8" s="38"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B9" s="4">
+        <v>21143</v>
+      </c>
+      <c r="C9" s="4">
+        <v>41220</v>
+      </c>
+      <c r="D9" s="4">
+        <v>49850</v>
+      </c>
+      <c r="E9" s="4">
+        <v>55702</v>
+      </c>
+      <c r="F9" s="4">
+        <v>57324</v>
+      </c>
+      <c r="G9" s="4">
+        <v>28147</v>
+      </c>
+      <c r="H9" s="4">
+        <v>50135</v>
+      </c>
+      <c r="I9" s="4">
+        <v>60547</v>
+      </c>
+      <c r="J9" s="4">
+        <v>67105</v>
+      </c>
+      <c r="K9" s="4">
+        <v>66756</v>
+      </c>
+      <c r="M9" s="5">
+        <v>3.3449074074074071E-3</v>
+      </c>
+      <c r="N9" s="38"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B10" s="4">
+        <v>20294</v>
+      </c>
+      <c r="C10" s="4">
+        <v>40713</v>
+      </c>
+      <c r="D10" s="4">
+        <v>50151</v>
+      </c>
+      <c r="E10" s="4">
+        <v>56546</v>
+      </c>
+      <c r="F10" s="4">
+        <v>58715</v>
+      </c>
+      <c r="G10" s="4">
+        <v>27835</v>
+      </c>
+      <c r="H10" s="4">
+        <v>50125</v>
+      </c>
+      <c r="I10" s="4">
+        <v>61807</v>
+      </c>
+      <c r="J10" s="4">
+        <v>67782</v>
+      </c>
+      <c r="K10" s="4">
+        <v>70212</v>
+      </c>
+      <c r="M10" s="5">
+        <v>6.122685185185185E-3</v>
+      </c>
+      <c r="N10" s="38"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B11" s="4">
+        <v>19751</v>
+      </c>
+      <c r="C11" s="4">
+        <v>39986</v>
+      </c>
+      <c r="D11" s="4">
+        <v>50026</v>
+      </c>
+      <c r="E11" s="4">
+        <v>56768</v>
+      </c>
+      <c r="F11" s="4">
+        <v>59329</v>
+      </c>
+      <c r="G11" s="4">
+        <v>27433</v>
+      </c>
+      <c r="H11" s="4">
+        <v>51123</v>
+      </c>
+      <c r="I11" s="4">
+        <v>64149</v>
+      </c>
+      <c r="J11" s="4">
+        <v>69982</v>
+      </c>
+      <c r="K11" s="4">
+        <v>71640</v>
+      </c>
+      <c r="M11" s="5">
+        <v>8.9004629629629625E-3</v>
+      </c>
+      <c r="N11" s="38"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B12" s="4">
+        <v>19450</v>
+      </c>
+      <c r="C12" s="4">
+        <v>39201</v>
+      </c>
+      <c r="D12" s="4">
+        <v>49924</v>
+      </c>
+      <c r="E12" s="4">
+        <v>56902</v>
+      </c>
+      <c r="F12" s="4">
+        <v>59765</v>
+      </c>
+      <c r="G12" s="4">
+        <v>27098</v>
+      </c>
+      <c r="H12" s="4">
+        <v>50806</v>
+      </c>
+      <c r="I12" s="4">
+        <v>64295</v>
+      </c>
+      <c r="J12" s="4">
+        <v>70766</v>
+      </c>
+      <c r="K12" s="4">
+        <v>71992</v>
+      </c>
+      <c r="M12" s="5">
+        <v>1.1678240740740741E-2</v>
+      </c>
+      <c r="N12" s="38"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B13" s="4">
+        <v>19368</v>
+      </c>
+      <c r="C13" s="4">
+        <v>38823</v>
+      </c>
+      <c r="D13" s="4">
+        <v>49699</v>
+      </c>
+      <c r="E13" s="4">
+        <v>56610</v>
+      </c>
+      <c r="F13" s="4">
+        <v>59478</v>
+      </c>
+      <c r="G13" s="4">
+        <v>26533</v>
+      </c>
+      <c r="H13" s="4">
+        <v>49878</v>
+      </c>
+      <c r="I13" s="4">
+        <v>64093</v>
+      </c>
+      <c r="J13" s="4">
+        <v>70808</v>
+      </c>
+      <c r="K13" s="4">
+        <v>73566</v>
+      </c>
+      <c r="M13" s="5">
+        <v>1.4456018518518519E-2</v>
+      </c>
+      <c r="N13" s="38"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B14" s="4">
+        <v>19247</v>
+      </c>
+      <c r="C14" s="4">
+        <v>38848</v>
+      </c>
+      <c r="D14" s="4">
+        <v>49917</v>
+      </c>
+      <c r="E14" s="4">
+        <v>56899</v>
+      </c>
+      <c r="F14" s="4">
+        <v>59790</v>
+      </c>
+      <c r="G14" s="4">
+        <v>26397</v>
+      </c>
+      <c r="H14" s="4">
+        <v>50126</v>
+      </c>
+      <c r="I14" s="4">
+        <v>64330</v>
+      </c>
+      <c r="J14" s="4">
+        <v>71334</v>
+      </c>
+      <c r="K14" s="4">
+        <v>74264</v>
+      </c>
+      <c r="M14" s="5">
+        <v>1.7233796296296296E-2</v>
+      </c>
+      <c r="N14" s="38"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B15" s="4">
+        <v>19429</v>
+      </c>
+      <c r="C15" s="4">
+        <v>38703</v>
+      </c>
+      <c r="D15" s="4">
+        <v>50260</v>
+      </c>
+      <c r="E15" s="4">
+        <v>57460</v>
+      </c>
+      <c r="F15" s="4">
+        <v>60131</v>
+      </c>
+      <c r="G15" s="4">
+        <v>26203</v>
+      </c>
+      <c r="H15" s="4">
+        <v>50336</v>
+      </c>
+      <c r="I15" s="4">
+        <v>65046</v>
+      </c>
+      <c r="J15" s="4">
+        <v>72259</v>
+      </c>
+      <c r="K15" s="4">
+        <v>75347</v>
+      </c>
+      <c r="M15" s="5">
+        <v>2.0011574074074074E-2</v>
+      </c>
+      <c r="N15" s="38"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B16" s="4">
+        <v>19420</v>
+      </c>
+      <c r="C16" s="4">
+        <v>39177</v>
+      </c>
+      <c r="D16" s="4">
+        <v>50857</v>
+      </c>
+      <c r="E16" s="4">
+        <v>57852</v>
+      </c>
+      <c r="F16" s="4">
+        <v>60794</v>
+      </c>
+      <c r="G16" s="4">
+        <v>26301</v>
+      </c>
+      <c r="H16" s="4">
+        <v>50654</v>
+      </c>
+      <c r="I16" s="4">
+        <v>65603</v>
+      </c>
+      <c r="J16" s="4">
+        <v>72467</v>
+      </c>
+      <c r="K16" s="4">
+        <v>75137</v>
+      </c>
+      <c r="M16" s="5">
+        <v>2.2789351851851852E-2</v>
+      </c>
+      <c r="N16" s="38"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B17" s="4">
+        <v>19614</v>
+      </c>
+      <c r="C17" s="4">
+        <v>39386</v>
+      </c>
+      <c r="D17" s="4">
+        <v>51621</v>
+      </c>
+      <c r="E17" s="4">
+        <v>58160</v>
+      </c>
+      <c r="F17" s="4">
+        <v>62284</v>
+      </c>
+      <c r="G17" s="4">
+        <v>26317</v>
+      </c>
+      <c r="H17" s="4">
+        <v>51228</v>
+      </c>
+      <c r="I17" s="4">
+        <v>66931</v>
+      </c>
+      <c r="J17" s="4">
+        <v>73663</v>
+      </c>
+      <c r="K17" s="4">
+        <v>76506</v>
+      </c>
+      <c r="M17" s="5">
+        <v>2.5567129629629634E-2</v>
+      </c>
+      <c r="N17" s="38"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B18" s="4">
+        <v>19731</v>
+      </c>
+      <c r="C18" s="4">
+        <v>39942</v>
+      </c>
+      <c r="D18" s="4">
+        <v>52211</v>
+      </c>
+      <c r="E18" s="4">
+        <v>59811</v>
+      </c>
+      <c r="F18" s="4">
+        <v>63243</v>
+      </c>
+      <c r="G18" s="4">
+        <v>26622</v>
+      </c>
+      <c r="H18" s="4">
+        <v>51940</v>
+      </c>
+      <c r="I18" s="4">
+        <v>68080</v>
+      </c>
+      <c r="J18" s="4">
+        <v>75054</v>
+      </c>
+      <c r="K18" s="4">
+        <v>77457</v>
+      </c>
+      <c r="M18" s="5">
+        <v>2.8344907407407412E-2</v>
+      </c>
+      <c r="N18" s="38"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B19" s="4">
+        <v>19979</v>
+      </c>
+      <c r="C19" s="4">
+        <v>40218</v>
+      </c>
+      <c r="D19" s="4">
+        <v>53146</v>
+      </c>
+      <c r="E19" s="4">
+        <v>60341</v>
+      </c>
+      <c r="F19" s="4">
+        <v>64181</v>
+      </c>
+      <c r="G19" s="4">
+        <v>26847</v>
+      </c>
+      <c r="H19" s="4">
+        <v>52710</v>
+      </c>
+      <c r="I19" s="4">
+        <v>68883</v>
+      </c>
+      <c r="J19" s="4">
+        <v>76159</v>
+      </c>
+      <c r="K19" s="4">
+        <v>79750</v>
+      </c>
+      <c r="M19" s="5">
+        <v>3.1122685185185187E-2</v>
+      </c>
+      <c r="N19" s="38"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B20" s="4">
+        <v>19950</v>
+      </c>
+      <c r="C20" s="4">
+        <v>40509</v>
+      </c>
+      <c r="D20" s="4">
+        <v>54004</v>
+      </c>
+      <c r="E20" s="4">
+        <v>61682</v>
+      </c>
+      <c r="F20" s="4">
+        <v>65289</v>
+      </c>
+      <c r="G20" s="4">
+        <v>27146</v>
+      </c>
+      <c r="H20" s="4">
+        <v>53887</v>
+      </c>
+      <c r="I20" s="4">
+        <v>70424</v>
+      </c>
+      <c r="J20" s="4">
+        <v>77746</v>
+      </c>
+      <c r="K20" s="4">
+        <v>80391</v>
+      </c>
+      <c r="M20" s="5">
+        <v>3.3900462962962966E-2</v>
+      </c>
+      <c r="N20" s="38"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B21" s="4">
+        <v>20193</v>
+      </c>
+      <c r="C21" s="4">
+        <v>41036</v>
+      </c>
+      <c r="D21" s="4">
+        <v>54958</v>
+      </c>
+      <c r="E21" s="4">
+        <v>62450</v>
+      </c>
+      <c r="F21" s="4">
+        <v>66414</v>
+      </c>
+      <c r="G21" s="4">
+        <v>27201</v>
+      </c>
+      <c r="H21" s="4">
+        <v>54660</v>
+      </c>
+      <c r="I21" s="4">
+        <v>71707</v>
+      </c>
+      <c r="J21" s="4">
+        <v>79159</v>
+      </c>
+      <c r="K21" s="4">
+        <v>81737</v>
+      </c>
+      <c r="M21" s="5">
+        <v>3.667824074074074E-2</v>
+      </c>
+      <c r="N21" s="38"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B22" s="4">
+        <v>20238</v>
+      </c>
+      <c r="C22" s="4">
+        <v>41437</v>
+      </c>
+      <c r="D22" s="4">
+        <v>55495</v>
+      </c>
+      <c r="E22" s="4">
+        <v>63809</v>
+      </c>
+      <c r="F22" s="4">
+        <v>68043</v>
+      </c>
+      <c r="G22" s="4">
+        <v>27312</v>
+      </c>
+      <c r="H22" s="4">
+        <v>55486</v>
+      </c>
+      <c r="I22" s="4">
+        <v>72723</v>
+      </c>
+      <c r="J22" s="4">
+        <v>80288</v>
+      </c>
+      <c r="K22" s="4">
+        <v>84387</v>
+      </c>
+      <c r="M22" s="5">
+        <v>3.9456018518518522E-2</v>
+      </c>
+      <c r="N22" s="38"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B23" s="4">
+        <v>20271</v>
+      </c>
+      <c r="C23" s="4">
+        <v>41809</v>
+      </c>
+      <c r="D23" s="4">
+        <v>56432</v>
+      </c>
+      <c r="E23" s="4">
+        <v>64850</v>
+      </c>
+      <c r="F23" s="4">
+        <v>68933</v>
+      </c>
+      <c r="G23" s="4">
+        <v>27239</v>
+      </c>
+      <c r="H23" s="4">
+        <v>56027</v>
+      </c>
+      <c r="I23" s="4">
+        <v>74384</v>
+      </c>
+      <c r="J23" s="4">
+        <v>81866</v>
+      </c>
+      <c r="K23" s="4">
+        <v>87597</v>
+      </c>
+      <c r="M23" s="5"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B24" s="4">
+        <v>20281</v>
+      </c>
+      <c r="C24" s="4">
+        <v>42092</v>
+      </c>
+      <c r="D24" s="4">
+        <v>56676</v>
+      </c>
+      <c r="E24" s="4">
+        <v>65488</v>
+      </c>
+      <c r="F24" s="4">
+        <v>70334</v>
+      </c>
+      <c r="G24" s="4">
+        <v>27350</v>
+      </c>
+      <c r="H24" s="4">
+        <v>57198</v>
+      </c>
+      <c r="I24" s="4">
+        <v>76078</v>
+      </c>
+      <c r="J24" s="4">
+        <v>83659</v>
+      </c>
+      <c r="K24" s="4">
+        <v>88630</v>
+      </c>
+      <c r="M24" s="5"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="4">
+        <v>12035</v>
+      </c>
+      <c r="C25" s="4">
+        <v>22243</v>
+      </c>
+      <c r="D25" s="4">
+        <v>27426</v>
+      </c>
+      <c r="E25" s="4">
+        <v>30530</v>
+      </c>
+      <c r="F25" s="4">
+        <v>31390</v>
+      </c>
+      <c r="G25" s="4">
+        <v>15982</v>
+      </c>
+      <c r="H25" s="4">
+        <v>27724</v>
+      </c>
+      <c r="I25" s="4">
+        <v>34694</v>
+      </c>
+      <c r="J25" s="4">
+        <v>37290</v>
+      </c>
+      <c r="K25" s="4">
+        <v>38183</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B26" s="4">
+        <v>12043</v>
+      </c>
+      <c r="C26" s="4">
+        <v>22992</v>
+      </c>
+      <c r="D26" s="4">
+        <v>29032</v>
+      </c>
+      <c r="E26" s="4">
+        <v>31751</v>
+      </c>
+      <c r="F26" s="4">
+        <v>32291</v>
+      </c>
+      <c r="G26" s="4">
+        <v>15973</v>
+      </c>
+      <c r="H26" s="4">
+        <v>29245</v>
+      </c>
+      <c r="I26" s="4">
+        <v>36031</v>
+      </c>
+      <c r="J26" s="4">
+        <v>38758</v>
+      </c>
+      <c r="K26" s="4">
+        <v>38819</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B27" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B28" s="4">
+        <v>10481</v>
+      </c>
+      <c r="C28" s="4">
+        <v>19843</v>
+      </c>
+      <c r="D28" s="4">
+        <v>24009</v>
+      </c>
+      <c r="E28" s="4">
+        <v>27092</v>
+      </c>
+      <c r="F28" s="4">
+        <v>28077</v>
+      </c>
+      <c r="G28" s="4">
+        <v>13785</v>
+      </c>
+      <c r="H28" s="4">
+        <v>24784</v>
+      </c>
+      <c r="I28" s="4">
+        <v>30045</v>
+      </c>
+      <c r="J28" s="4">
+        <v>33455</v>
+      </c>
+      <c r="K28" s="4">
+        <v>33283</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B29" s="4">
+        <v>10534</v>
+      </c>
+      <c r="C29" s="4">
+        <v>19860</v>
+      </c>
+      <c r="D29" s="4">
+        <v>24435</v>
+      </c>
+      <c r="E29" s="4">
+        <v>27624</v>
+      </c>
+      <c r="F29" s="4">
+        <v>28830</v>
+      </c>
+      <c r="G29" s="4">
+        <v>13951</v>
+      </c>
+      <c r="H29" s="4">
+        <v>24924</v>
+      </c>
+      <c r="I29" s="4">
+        <v>30810</v>
+      </c>
+      <c r="J29" s="4">
+        <v>33915</v>
+      </c>
+      <c r="K29" s="4">
+        <v>35200</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B30" s="4">
+        <v>11128</v>
+      </c>
+      <c r="C30" s="4">
+        <v>20394</v>
+      </c>
+      <c r="D30" s="4">
+        <v>25366</v>
+      </c>
+      <c r="E30" s="4">
+        <v>28351</v>
+      </c>
+      <c r="F30" s="4">
+        <v>29591</v>
+      </c>
+      <c r="G30" s="4">
+        <v>14472</v>
+      </c>
+      <c r="H30" s="4">
+        <v>26167</v>
+      </c>
+      <c r="I30" s="4">
+        <v>32180</v>
+      </c>
+      <c r="J30" s="4">
+        <v>35180</v>
+      </c>
+      <c r="K30" s="4">
+        <v>35933</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B31" s="4">
+        <v>11163</v>
+      </c>
+      <c r="C31" s="4">
+        <v>20789</v>
+      </c>
+      <c r="D31" s="4">
+        <v>25732</v>
+      </c>
+      <c r="E31" s="4">
+        <v>28905</v>
+      </c>
+      <c r="F31" s="4">
+        <v>30395</v>
+      </c>
+      <c r="G31" s="4">
+        <v>14607</v>
+      </c>
+      <c r="H31" s="4">
+        <v>26341</v>
+      </c>
+      <c r="I31" s="4">
+        <v>32566</v>
+      </c>
+      <c r="J31" s="4">
+        <v>35637</v>
+      </c>
+      <c r="K31" s="4">
+        <v>36398</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B32" s="4">
+        <v>11257</v>
+      </c>
+      <c r="C32" s="4">
+        <v>21134</v>
+      </c>
+      <c r="D32" s="4">
+        <v>26595</v>
+      </c>
+      <c r="E32" s="4">
+        <v>29468</v>
+      </c>
+      <c r="F32" s="4">
+        <v>31219</v>
+      </c>
+      <c r="G32" s="4">
+        <v>14942</v>
+      </c>
+      <c r="H32" s="4">
+        <v>26587</v>
+      </c>
+      <c r="I32" s="4">
+        <v>32993</v>
+      </c>
+      <c r="J32" s="4">
+        <v>36158</v>
+      </c>
+      <c r="K32" s="4">
+        <v>37631</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B33" s="4">
+        <v>11200</v>
+      </c>
+      <c r="C33" s="4">
+        <v>21208</v>
+      </c>
+      <c r="D33" s="4">
+        <v>26920</v>
+      </c>
+      <c r="E33" s="4">
+        <v>30366</v>
+      </c>
+      <c r="F33" s="4">
+        <v>31920</v>
+      </c>
+      <c r="G33" s="4">
+        <v>14913</v>
+      </c>
+      <c r="H33" s="4">
+        <v>27007</v>
+      </c>
+      <c r="I33" s="4">
+        <v>33406</v>
+      </c>
+      <c r="J33" s="4">
+        <v>36912</v>
+      </c>
+      <c r="K33" s="4">
+        <v>38512</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B34" s="4">
+        <v>11211</v>
+      </c>
+      <c r="C34" s="4">
+        <v>21006</v>
+      </c>
+      <c r="D34" s="4">
+        <v>27304</v>
+      </c>
+      <c r="E34" s="4">
+        <v>30552</v>
+      </c>
+      <c r="F34" s="4">
+        <v>32419</v>
+      </c>
+      <c r="G34" s="4">
+        <v>14987</v>
+      </c>
+      <c r="H34" s="4">
+        <v>27160</v>
+      </c>
+      <c r="I34" s="4">
+        <v>34030</v>
+      </c>
+      <c r="J34" s="4">
+        <v>37861</v>
+      </c>
+      <c r="K34" s="4">
+        <v>39001</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B35" s="4">
+        <v>11213</v>
+      </c>
+      <c r="C35" s="4">
+        <v>21247</v>
+      </c>
+      <c r="D35" s="4">
+        <v>27340</v>
+      </c>
+      <c r="E35" s="4">
+        <v>30703</v>
+      </c>
+      <c r="F35" s="4">
+        <v>33015</v>
+      </c>
+      <c r="G35" s="4">
+        <v>14900</v>
+      </c>
+      <c r="H35" s="4">
+        <v>27213</v>
+      </c>
+      <c r="I35" s="4">
+        <v>34619</v>
+      </c>
+      <c r="J35" s="4">
+        <v>38394</v>
+      </c>
+      <c r="K35" s="4">
+        <v>39783</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B36" s="4">
+        <v>11141</v>
+      </c>
+      <c r="C36" s="4">
+        <v>21152</v>
+      </c>
+      <c r="D36" s="4">
+        <v>27360</v>
+      </c>
+      <c r="E36" s="4">
+        <v>31404</v>
+      </c>
+      <c r="F36" s="4">
+        <v>33387</v>
+      </c>
+      <c r="G36" s="4">
+        <v>14884</v>
+      </c>
+      <c r="H36" s="4">
+        <v>27289</v>
+      </c>
+      <c r="I36" s="4">
+        <v>35068</v>
+      </c>
+      <c r="J36" s="4">
+        <v>39031</v>
+      </c>
+      <c r="K36" s="4">
+        <v>40837</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B37" s="4">
+        <v>11010</v>
+      </c>
+      <c r="C37" s="4">
+        <v>20937</v>
+      </c>
+      <c r="D37" s="4">
+        <v>27567</v>
+      </c>
+      <c r="E37" s="4">
+        <v>31187</v>
+      </c>
+      <c r="F37" s="4">
+        <v>33580</v>
+      </c>
+      <c r="G37" s="4">
+        <v>14791</v>
+      </c>
+      <c r="H37" s="4">
+        <v>27628</v>
+      </c>
+      <c r="I37" s="4">
+        <v>35646</v>
+      </c>
+      <c r="J37" s="4">
+        <v>39646</v>
+      </c>
+      <c r="K37" s="4">
+        <v>41242</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B38" s="4">
+        <v>10983</v>
+      </c>
+      <c r="C38" s="4">
+        <v>20912</v>
+      </c>
+      <c r="D38" s="4">
+        <v>27540</v>
+      </c>
+      <c r="E38" s="4">
+        <v>31684</v>
+      </c>
+      <c r="F38" s="4">
+        <v>34178</v>
+      </c>
+      <c r="G38" s="4">
+        <v>14569</v>
+      </c>
+      <c r="H38" s="4">
+        <v>27775</v>
+      </c>
+      <c r="I38" s="4">
+        <v>35716</v>
+      </c>
+      <c r="J38" s="4">
+        <v>40516</v>
+      </c>
+      <c r="K38" s="4">
+        <v>42367</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B39" s="4">
+        <v>10935</v>
+      </c>
+      <c r="C39" s="4">
+        <v>20981</v>
+      </c>
+      <c r="D39" s="4">
+        <v>27866</v>
+      </c>
+      <c r="E39" s="4">
+        <v>31728</v>
+      </c>
+      <c r="F39" s="4">
+        <v>34300</v>
+      </c>
+      <c r="G39" s="4">
+        <v>14502</v>
+      </c>
+      <c r="H39" s="4">
+        <v>28133</v>
+      </c>
+      <c r="I39" s="4">
+        <v>36251</v>
+      </c>
+      <c r="J39" s="4">
+        <v>41082</v>
+      </c>
+      <c r="K39" s="4">
+        <v>42561</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B40" s="4">
+        <v>10902</v>
+      </c>
+      <c r="C40" s="4">
+        <v>21142</v>
+      </c>
+      <c r="D40" s="4">
+        <v>27980</v>
+      </c>
+      <c r="E40" s="4">
+        <v>32027</v>
+      </c>
+      <c r="F40" s="4">
+        <v>34801</v>
+      </c>
+      <c r="G40" s="4">
+        <v>14478</v>
+      </c>
+      <c r="H40" s="4">
+        <v>28317</v>
+      </c>
+      <c r="I40" s="4">
+        <v>36767</v>
+      </c>
+      <c r="J40" s="4">
+        <v>41593</v>
+      </c>
+      <c r="K40" s="4">
+        <v>43135</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B41" s="4">
+        <v>10952</v>
+      </c>
+      <c r="C41" s="4">
+        <v>21005</v>
+      </c>
+      <c r="D41" s="4">
+        <v>28123</v>
+      </c>
+      <c r="E41" s="4">
+        <v>32363</v>
+      </c>
+      <c r="F41" s="4">
+        <v>35147</v>
+      </c>
+      <c r="G41" s="4">
+        <v>14455</v>
+      </c>
+      <c r="H41" s="4">
+        <v>28399</v>
+      </c>
+      <c r="I41" s="4">
+        <v>37293</v>
+      </c>
+      <c r="J41" s="4">
+        <v>42051</v>
+      </c>
+      <c r="K41" s="4">
+        <v>44359</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B42" s="4">
+        <v>10983</v>
+      </c>
+      <c r="C42" s="4">
+        <v>21030</v>
+      </c>
+      <c r="D42" s="4">
+        <v>28458</v>
+      </c>
+      <c r="E42" s="4">
+        <v>32779</v>
+      </c>
+      <c r="F42" s="4">
+        <v>35570</v>
+      </c>
+      <c r="G42" s="4">
+        <v>14461</v>
+      </c>
+      <c r="H42" s="4">
+        <v>28654</v>
+      </c>
+      <c r="I42" s="4">
+        <v>38061</v>
+      </c>
+      <c r="J42" s="4">
+        <v>42702</v>
+      </c>
+      <c r="K42" s="4">
+        <v>45573</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B43" s="4">
+        <v>10985</v>
+      </c>
+      <c r="C43" s="4">
+        <v>21292</v>
+      </c>
+      <c r="D43" s="4">
+        <v>28669</v>
+      </c>
+      <c r="E43" s="4">
+        <v>32991</v>
+      </c>
+      <c r="F43" s="4">
+        <v>35866</v>
+      </c>
+      <c r="G43" s="4">
+        <v>14521</v>
+      </c>
+      <c r="H43" s="4">
+        <v>29082</v>
+      </c>
+      <c r="I43" s="4">
+        <v>38804</v>
+      </c>
+      <c r="J43" s="4">
+        <v>43372</v>
+      </c>
+      <c r="K43" s="4">
+        <v>45998</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="L1:P1"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B4:K4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F59D0C7-7FA4-44E4-9AE8-9C2A0438727E}">
   <dimension ref="A1:U43"/>
   <sheetViews>
-    <sheetView topLeftCell="G13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L24" sqref="L24:M24"/>
     </sheetView>
   </sheetViews>
@@ -2838,18 +5949,18 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
       <c r="L1" s="8" t="s">
         <v>25</v>
       </c>
@@ -2859,10 +5970,10 @@
       <c r="N1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="22" t="s">
+      <c r="O1" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="P1" s="22"/>
+      <c r="P1" s="26"/>
       <c r="Q1" s="9"/>
       <c r="R1" s="9"/>
       <c r="S1" s="9"/>
@@ -2888,19 +5999,19 @@
       <c r="F2" s="9">
         <v>128</v>
       </c>
-      <c r="G2" s="23">
+      <c r="G2" s="27">
         <v>32</v>
       </c>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="22">
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="26">
         <v>32</v>
       </c>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
       <c r="P2" s="9">
         <v>0</v>
       </c>
@@ -2914,13 +6025,13 @@
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="23">
+      <c r="B3" s="27">
         <v>4.8</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
       <c r="G3">
         <v>4.8</v>
       </c>
@@ -2936,41 +6047,41 @@
       <c r="K3">
         <v>12</v>
       </c>
-      <c r="L3" s="23">
+      <c r="L3" s="27">
         <v>6</v>
       </c>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21" t="s">
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="21"/>
+      <c r="M4" s="25"/>
       <c r="N4" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="O4" s="21" t="s">
+      <c r="O4" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="P4" s="21"/>
+      <c r="P4" s="25"/>
       <c r="Q4" s="11"/>
       <c r="R4" s="11"/>
       <c r="S4" s="11"/>
@@ -4916,18 +8027,18 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
       <c r="L1" s="8" t="s">
         <v>25</v>
       </c>
@@ -4937,10 +8048,10 @@
       <c r="N1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="22" t="s">
+      <c r="O1" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="P1" s="22"/>
+      <c r="P1" s="26"/>
       <c r="Q1" s="9"/>
       <c r="R1" s="9"/>
       <c r="S1" s="9"/>
@@ -4966,19 +8077,19 @@
       <c r="F2" s="9">
         <v>128</v>
       </c>
-      <c r="G2" s="23">
+      <c r="G2" s="27">
         <v>32</v>
       </c>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="22">
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="26">
         <v>32</v>
       </c>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
       <c r="P2" s="9">
         <v>0</v>
       </c>
@@ -4992,13 +8103,13 @@
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="23">
+      <c r="B3" s="27">
         <v>4.8</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
       <c r="G3">
         <v>4.8</v>
       </c>
@@ -5014,43 +8125,43 @@
       <c r="K3">
         <v>12</v>
       </c>
-      <c r="L3" s="23">
+      <c r="L3" s="27">
         <v>6</v>
       </c>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21" t="s">
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21" t="s">
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="M4" s="21"/>
+      <c r="M4" s="25"/>
       <c r="N4" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="O4" s="21" t="s">
+      <c r="O4" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="P4" s="21"/>
+      <c r="P4" s="25"/>
       <c r="Q4" s="11"/>
       <c r="R4" s="11"/>
       <c r="S4" s="11"/>
@@ -6984,7 +10095,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD5A6CC5-797D-4C83-B7AB-E71718C8511F}">
   <dimension ref="A1:U201"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A103" sqref="A103:XFD103"/>
     </sheetView>
   </sheetViews>
@@ -6997,23 +10108,23 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
       <c r="L1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
       <c r="Q1" s="9"/>
       <c r="R1" s="9"/>
       <c r="S1" s="9"/>
@@ -7039,13 +10150,13 @@
       <c r="F2" s="9">
         <v>128</v>
       </c>
-      <c r="G2" s="23">
+      <c r="G2" s="27">
         <v>32</v>
       </c>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
       <c r="L2" s="15">
         <v>32</v>
       </c>
@@ -7059,13 +10170,13 @@
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="23">
+      <c r="B3" s="27">
         <v>4.8</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
       <c r="G3">
         <v>4.8</v>
       </c>
@@ -7089,23 +10200,23 @@
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
       <c r="L4" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
       <c r="T4" s="11"/>
       <c r="U4" s="11"/>
     </row>
@@ -14342,23 +17453,23 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
       <c r="L1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
       <c r="Q1" s="9"/>
       <c r="R1" s="9"/>
       <c r="S1" s="9"/>
@@ -14384,13 +17495,13 @@
       <c r="F2" s="9">
         <v>128</v>
       </c>
-      <c r="G2" s="23">
+      <c r="G2" s="27">
         <v>32</v>
       </c>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
       <c r="L2" s="15">
         <v>32</v>
       </c>
@@ -14404,13 +17515,13 @@
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="23">
+      <c r="B3" s="27">
         <v>4.8</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
       <c r="G3">
         <v>4.8</v>
       </c>
@@ -14434,25 +17545,25 @@
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21" t="s">
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
       <c r="L4" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
       <c r="Q4" s="11"/>
       <c r="R4" s="11"/>
       <c r="S4" s="11"/>
@@ -21698,23 +24809,23 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
       <c r="L1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
       <c r="Q1" s="9"/>
       <c r="R1" s="9"/>
       <c r="S1" s="9"/>
@@ -21740,13 +24851,13 @@
       <c r="F2" s="9">
         <v>128</v>
       </c>
-      <c r="G2" s="23">
+      <c r="G2" s="27">
         <v>32</v>
       </c>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
       <c r="L2" s="15">
         <v>32</v>
       </c>
@@ -21760,13 +24871,13 @@
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="23">
+      <c r="B3" s="27">
         <v>4.8</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
       <c r="G3">
         <v>4.8</v>
       </c>
@@ -21790,25 +24901,25 @@
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21" t="s">
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
       <c r="L4" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
       <c r="Q4" s="11"/>
       <c r="R4" s="11"/>
       <c r="S4" s="11"/>
@@ -29037,7 +32148,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88DF15CF-F52F-475A-8A1A-230CFDEC8F10}">
   <dimension ref="A1:BW99"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
@@ -29353,7 +32464,7 @@
       <c r="BU2" s="4">
         <v>13767</v>
       </c>
-      <c r="BW2" s="26">
+      <c r="BW2" s="22">
         <v>0</v>
       </c>
     </row>
@@ -32703,7 +35814,7 @@
       </c>
     </row>
     <row r="18" spans="1:75" x14ac:dyDescent="0.3">
-      <c r="A18" s="25"/>
+      <c r="A18" s="21"/>
       <c r="B18" s="4">
         <v>15833</v>
       </c>
@@ -39916,7 +43027,7 @@
       <c r="BU51" s="17"/>
     </row>
     <row r="52" spans="1:75" x14ac:dyDescent="0.3">
-      <c r="A52" s="25"/>
+      <c r="A52" s="21"/>
       <c r="B52" s="4">
         <v>8104</v>
       </c>
@@ -50436,7 +53547,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4B75E71-CC8A-4A54-AFBB-5DA7C5FD1C03}">
   <dimension ref="A1:L81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
@@ -51032,7 +54143,7 @@
       <c r="J18" s="4">
         <v>24889</v>
       </c>
-      <c r="L18" s="25">
+      <c r="L18" s="21">
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
@@ -51098,7 +54209,7 @@
       <c r="J20" s="4">
         <v>24810</v>
       </c>
-      <c r="L20" s="25">
+      <c r="L20" s="21">
         <f t="shared" si="0"/>
         <v>76</v>
       </c>
@@ -51362,7 +54473,7 @@
       <c r="J28" s="4">
         <v>23493</v>
       </c>
-      <c r="L28" s="25">
+      <c r="L28" s="21">
         <f t="shared" si="0"/>
         <v>108</v>
       </c>
@@ -51593,7 +54704,7 @@
       <c r="J35" s="4">
         <v>23014</v>
       </c>
-      <c r="L35" s="27">
+      <c r="L35" s="23">
         <f t="shared" si="0"/>
         <v>136</v>
       </c>
@@ -52922,4 +56033,1410 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF3AAEF2-9AC8-421C-B3E8-372DD83E4315}">
+  <dimension ref="A1:X43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25:K41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="24"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="27">
+        <v>100</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="24">
+        <v>4.8</v>
+      </c>
+      <c r="C3" s="24">
+        <v>6</v>
+      </c>
+      <c r="D3" s="24">
+        <v>7.2</v>
+      </c>
+      <c r="E3" s="24">
+        <v>9.6</v>
+      </c>
+      <c r="F3" s="24">
+        <v>12</v>
+      </c>
+      <c r="G3" s="24">
+        <v>4.8</v>
+      </c>
+      <c r="H3" s="24">
+        <v>6</v>
+      </c>
+      <c r="I3" s="24">
+        <v>7.2</v>
+      </c>
+      <c r="J3" s="24">
+        <v>9.6</v>
+      </c>
+      <c r="K3" s="24">
+        <v>12</v>
+      </c>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="16"/>
+      <c r="U3" s="16"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A4" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="O4" s="24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A5" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O5" s="30">
+        <v>0.2</v>
+      </c>
+      <c r="P5" s="33">
+        <v>0.185</v>
+      </c>
+      <c r="Q5" s="40">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="R5" s="32">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="S5" s="34">
+        <v>0.16</v>
+      </c>
+      <c r="T5" s="29">
+        <v>0.217</v>
+      </c>
+      <c r="U5" s="37">
+        <v>0.21</v>
+      </c>
+      <c r="V5" s="36">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="W5" s="35">
+        <v>0.192</v>
+      </c>
+      <c r="X5" s="36">
+        <v>0.19400000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="4">
+        <v>32157</v>
+      </c>
+      <c r="C6" s="4">
+        <v>47786</v>
+      </c>
+      <c r="D6" s="4">
+        <v>59607</v>
+      </c>
+      <c r="E6" s="4">
+        <v>65748</v>
+      </c>
+      <c r="F6" s="4">
+        <v>70805</v>
+      </c>
+      <c r="G6" s="4">
+        <v>47354</v>
+      </c>
+      <c r="H6" s="4">
+        <v>66887</v>
+      </c>
+      <c r="I6" s="4">
+        <v>77227</v>
+      </c>
+      <c r="J6" s="4">
+        <v>83206</v>
+      </c>
+      <c r="K6" s="4">
+        <v>86900</v>
+      </c>
+      <c r="M6" s="5">
+        <v>0</v>
+      </c>
+      <c r="N6" s="38"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B7" s="4">
+        <v>32215</v>
+      </c>
+      <c r="C7" s="4">
+        <v>48506</v>
+      </c>
+      <c r="D7" s="4">
+        <v>60721</v>
+      </c>
+      <c r="E7" s="4">
+        <v>68415</v>
+      </c>
+      <c r="F7" s="4">
+        <v>73206</v>
+      </c>
+      <c r="G7" s="4">
+        <v>47774</v>
+      </c>
+      <c r="H7" s="4">
+        <v>68366</v>
+      </c>
+      <c r="I7" s="4">
+        <v>79314</v>
+      </c>
+      <c r="J7" s="4">
+        <v>84967</v>
+      </c>
+      <c r="K7" s="4">
+        <v>88215</v>
+      </c>
+      <c r="M7" s="5">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="N7" s="38"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8" s="5">
+        <v>3.0671296296296297E-3</v>
+      </c>
+      <c r="N8" s="38"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B9" s="4">
+        <v>26231</v>
+      </c>
+      <c r="C9" s="4">
+        <v>40339</v>
+      </c>
+      <c r="D9" s="4">
+        <v>50490</v>
+      </c>
+      <c r="E9" s="4">
+        <v>58015</v>
+      </c>
+      <c r="F9" s="4">
+        <v>62751</v>
+      </c>
+      <c r="G9" s="4">
+        <v>40685</v>
+      </c>
+      <c r="H9" s="4">
+        <v>59293</v>
+      </c>
+      <c r="I9" s="4">
+        <v>67106</v>
+      </c>
+      <c r="J9" s="4">
+        <v>73988</v>
+      </c>
+      <c r="K9" s="4">
+        <v>75473</v>
+      </c>
+      <c r="M9" s="5">
+        <v>3.3449074074074071E-3</v>
+      </c>
+      <c r="N9" s="38"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B10" s="4">
+        <v>25585</v>
+      </c>
+      <c r="C10" s="4">
+        <v>40528</v>
+      </c>
+      <c r="D10" s="4">
+        <v>52941</v>
+      </c>
+      <c r="E10" s="4">
+        <v>58153</v>
+      </c>
+      <c r="F10" s="4">
+        <v>63640</v>
+      </c>
+      <c r="G10" s="4">
+        <v>39833</v>
+      </c>
+      <c r="H10" s="4">
+        <v>57430</v>
+      </c>
+      <c r="I10" s="4">
+        <v>68563</v>
+      </c>
+      <c r="J10" s="4">
+        <v>74485</v>
+      </c>
+      <c r="K10" s="4">
+        <v>77416</v>
+      </c>
+      <c r="M10" s="5">
+        <v>6.122685185185185E-3</v>
+      </c>
+      <c r="N10" s="38"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B11" s="4">
+        <v>24562</v>
+      </c>
+      <c r="C11" s="4">
+        <v>39895</v>
+      </c>
+      <c r="D11" s="4">
+        <v>52828</v>
+      </c>
+      <c r="E11" s="4">
+        <v>59116</v>
+      </c>
+      <c r="F11" s="4">
+        <v>64914</v>
+      </c>
+      <c r="G11" s="4">
+        <v>39331</v>
+      </c>
+      <c r="H11" s="4">
+        <v>59445</v>
+      </c>
+      <c r="I11" s="4">
+        <v>69000</v>
+      </c>
+      <c r="J11" s="4">
+        <v>78022</v>
+      </c>
+      <c r="K11" s="4">
+        <v>77769</v>
+      </c>
+      <c r="M11" s="5">
+        <v>8.9004629629629625E-3</v>
+      </c>
+      <c r="N11" s="38"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B12" s="4">
+        <v>24821</v>
+      </c>
+      <c r="C12" s="4">
+        <v>39574</v>
+      </c>
+      <c r="D12" s="4">
+        <v>51702</v>
+      </c>
+      <c r="E12" s="4">
+        <v>59413</v>
+      </c>
+      <c r="F12" s="4">
+        <v>62962</v>
+      </c>
+      <c r="G12" s="4">
+        <v>37775</v>
+      </c>
+      <c r="H12" s="4">
+        <v>57914</v>
+      </c>
+      <c r="I12" s="4">
+        <v>70871</v>
+      </c>
+      <c r="J12" s="4">
+        <v>76406</v>
+      </c>
+      <c r="K12" s="4">
+        <v>80005</v>
+      </c>
+      <c r="M12" s="5">
+        <v>1.1678240740740741E-2</v>
+      </c>
+      <c r="N12" s="38"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B13" s="4">
+        <v>24031</v>
+      </c>
+      <c r="C13" s="4">
+        <v>39490</v>
+      </c>
+      <c r="D13" s="4">
+        <v>51532</v>
+      </c>
+      <c r="E13" s="4">
+        <v>59240</v>
+      </c>
+      <c r="F13" s="4">
+        <v>64148</v>
+      </c>
+      <c r="G13" s="4">
+        <v>37502</v>
+      </c>
+      <c r="H13" s="4">
+        <v>57805</v>
+      </c>
+      <c r="I13" s="4">
+        <v>70188</v>
+      </c>
+      <c r="J13" s="4">
+        <v>75835</v>
+      </c>
+      <c r="K13" s="4">
+        <v>78943</v>
+      </c>
+      <c r="M13" s="5">
+        <v>1.4456018518518519E-2</v>
+      </c>
+      <c r="N13" s="38"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B14" s="4">
+        <v>24296</v>
+      </c>
+      <c r="C14" s="4">
+        <v>39527</v>
+      </c>
+      <c r="D14" s="4">
+        <v>52031</v>
+      </c>
+      <c r="E14" s="4">
+        <v>59827</v>
+      </c>
+      <c r="F14" s="4">
+        <v>63486</v>
+      </c>
+      <c r="G14" s="4">
+        <v>37500</v>
+      </c>
+      <c r="H14" s="4">
+        <v>58638</v>
+      </c>
+      <c r="I14" s="4">
+        <v>70712</v>
+      </c>
+      <c r="J14" s="4">
+        <v>75966</v>
+      </c>
+      <c r="K14" s="4">
+        <v>80594</v>
+      </c>
+      <c r="M14" s="5">
+        <v>1.7233796296296296E-2</v>
+      </c>
+      <c r="N14" s="38"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B15" s="4">
+        <v>24094</v>
+      </c>
+      <c r="C15" s="4">
+        <v>40132</v>
+      </c>
+      <c r="D15" s="4">
+        <v>52220</v>
+      </c>
+      <c r="E15" s="4">
+        <v>59513</v>
+      </c>
+      <c r="F15" s="4">
+        <v>63087</v>
+      </c>
+      <c r="G15" s="4">
+        <v>37610</v>
+      </c>
+      <c r="H15" s="4">
+        <v>59068</v>
+      </c>
+      <c r="I15" s="4">
+        <v>71586</v>
+      </c>
+      <c r="J15" s="4">
+        <v>77181</v>
+      </c>
+      <c r="K15" s="4">
+        <v>80193</v>
+      </c>
+      <c r="M15" s="5">
+        <v>2.0011574074074074E-2</v>
+      </c>
+      <c r="N15" s="38"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B16" s="4">
+        <v>24321</v>
+      </c>
+      <c r="C16" s="4">
+        <v>40063</v>
+      </c>
+      <c r="D16" s="4">
+        <v>52017</v>
+      </c>
+      <c r="E16" s="4">
+        <v>60348</v>
+      </c>
+      <c r="F16" s="4">
+        <v>63692</v>
+      </c>
+      <c r="G16" s="4">
+        <v>38334</v>
+      </c>
+      <c r="H16" s="4">
+        <v>59686</v>
+      </c>
+      <c r="I16" s="4">
+        <v>71695</v>
+      </c>
+      <c r="J16" s="4">
+        <v>78039</v>
+      </c>
+      <c r="K16" s="4">
+        <v>82516</v>
+      </c>
+      <c r="M16" s="5">
+        <v>2.2789351851851852E-2</v>
+      </c>
+      <c r="N16" s="38"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B17" s="4">
+        <v>24686</v>
+      </c>
+      <c r="C17" s="4">
+        <v>40506</v>
+      </c>
+      <c r="D17" s="4">
+        <v>53678</v>
+      </c>
+      <c r="E17" s="4">
+        <v>61660</v>
+      </c>
+      <c r="F17" s="4">
+        <v>64847</v>
+      </c>
+      <c r="G17" s="4">
+        <v>37478</v>
+      </c>
+      <c r="H17" s="4">
+        <v>60106</v>
+      </c>
+      <c r="I17" s="4">
+        <v>73040</v>
+      </c>
+      <c r="J17" s="4">
+        <v>81796</v>
+      </c>
+      <c r="K17" s="4">
+        <v>81748</v>
+      </c>
+      <c r="M17" s="5">
+        <v>2.5567129629629634E-2</v>
+      </c>
+      <c r="N17" s="38"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B18" s="4">
+        <v>25159</v>
+      </c>
+      <c r="C18" s="4">
+        <v>40157</v>
+      </c>
+      <c r="D18" s="4">
+        <v>53350</v>
+      </c>
+      <c r="E18" s="4">
+        <v>62164</v>
+      </c>
+      <c r="F18" s="4">
+        <v>67731</v>
+      </c>
+      <c r="G18" s="4">
+        <v>38998</v>
+      </c>
+      <c r="H18" s="4">
+        <v>61840</v>
+      </c>
+      <c r="I18" s="4">
+        <v>74354</v>
+      </c>
+      <c r="J18" s="4">
+        <v>84040</v>
+      </c>
+      <c r="K18" s="4">
+        <v>83298</v>
+      </c>
+      <c r="M18" s="5">
+        <v>2.8344907407407412E-2</v>
+      </c>
+      <c r="N18" s="38"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B19" s="4">
+        <v>25107</v>
+      </c>
+      <c r="C19" s="4">
+        <v>41345</v>
+      </c>
+      <c r="D19" s="4">
+        <v>53796</v>
+      </c>
+      <c r="E19" s="4">
+        <v>62681</v>
+      </c>
+      <c r="F19" s="4">
+        <v>68360</v>
+      </c>
+      <c r="G19" s="4">
+        <v>39055</v>
+      </c>
+      <c r="H19" s="4">
+        <v>62508</v>
+      </c>
+      <c r="I19" s="4">
+        <v>74858</v>
+      </c>
+      <c r="J19" s="4">
+        <v>83476</v>
+      </c>
+      <c r="K19" s="4">
+        <v>87154</v>
+      </c>
+      <c r="M19" s="5">
+        <v>3.1122685185185187E-2</v>
+      </c>
+      <c r="N19" s="38"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B20" s="4">
+        <v>25435</v>
+      </c>
+      <c r="C20" s="4">
+        <v>42590</v>
+      </c>
+      <c r="D20" s="4">
+        <v>54849</v>
+      </c>
+      <c r="E20" s="4">
+        <v>65114</v>
+      </c>
+      <c r="F20" s="4">
+        <v>69011</v>
+      </c>
+      <c r="G20" s="4">
+        <v>39355</v>
+      </c>
+      <c r="H20" s="4">
+        <v>64629</v>
+      </c>
+      <c r="I20" s="4">
+        <v>77672</v>
+      </c>
+      <c r="J20" s="4">
+        <v>84717</v>
+      </c>
+      <c r="K20" s="4">
+        <v>88351</v>
+      </c>
+      <c r="M20" s="5">
+        <v>3.3900462962962966E-2</v>
+      </c>
+      <c r="N20" s="38"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B21" s="4">
+        <v>25828</v>
+      </c>
+      <c r="C21" s="4">
+        <v>41957</v>
+      </c>
+      <c r="D21" s="4">
+        <v>55855</v>
+      </c>
+      <c r="E21" s="4">
+        <v>65580</v>
+      </c>
+      <c r="F21" s="4">
+        <v>69931</v>
+      </c>
+      <c r="G21" s="4">
+        <v>39335</v>
+      </c>
+      <c r="H21" s="4">
+        <v>64668</v>
+      </c>
+      <c r="I21" s="4">
+        <v>77932</v>
+      </c>
+      <c r="J21" s="4">
+        <v>87453</v>
+      </c>
+      <c r="K21" s="4">
+        <v>88850</v>
+      </c>
+      <c r="M21" s="5">
+        <v>3.667824074074074E-2</v>
+      </c>
+      <c r="N21" s="38"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B22" s="4">
+        <v>25817</v>
+      </c>
+      <c r="C22" s="4">
+        <v>42249</v>
+      </c>
+      <c r="D22" s="4">
+        <v>56435</v>
+      </c>
+      <c r="E22" s="4">
+        <v>66758</v>
+      </c>
+      <c r="F22" s="4">
+        <v>72115</v>
+      </c>
+      <c r="G22" s="4">
+        <v>39382</v>
+      </c>
+      <c r="H22" s="4">
+        <v>65896</v>
+      </c>
+      <c r="I22" s="4">
+        <v>80637</v>
+      </c>
+      <c r="J22" s="4">
+        <v>87423</v>
+      </c>
+      <c r="K22" s="4">
+        <v>90988</v>
+      </c>
+      <c r="M22" s="5">
+        <v>3.9456018518518522E-2</v>
+      </c>
+      <c r="N22" s="38"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="M23" s="5"/>
+    </row>
+    <row r="24" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
+      <c r="M24" s="5"/>
+    </row>
+    <row r="25" spans="1:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="4">
+        <v>15410</v>
+      </c>
+      <c r="C25" s="4">
+        <v>23030</v>
+      </c>
+      <c r="D25" s="4">
+        <v>28914</v>
+      </c>
+      <c r="E25" s="4">
+        <v>32212</v>
+      </c>
+      <c r="F25" s="4">
+        <v>34965</v>
+      </c>
+      <c r="G25" s="4">
+        <v>22700</v>
+      </c>
+      <c r="H25" s="4">
+        <v>33078</v>
+      </c>
+      <c r="I25" s="4">
+        <v>38653</v>
+      </c>
+      <c r="J25" s="4">
+        <v>41979</v>
+      </c>
+      <c r="K25" s="4">
+        <v>44176</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B26" s="4">
+        <v>15505</v>
+      </c>
+      <c r="C26" s="4">
+        <v>23396</v>
+      </c>
+      <c r="D26" s="4">
+        <v>29557</v>
+      </c>
+      <c r="E26" s="4">
+        <v>33651</v>
+      </c>
+      <c r="F26" s="4">
+        <v>36160</v>
+      </c>
+      <c r="G26" s="4">
+        <v>22864</v>
+      </c>
+      <c r="H26" s="4">
+        <v>33724</v>
+      </c>
+      <c r="I26" s="4">
+        <v>39681</v>
+      </c>
+      <c r="J26" s="4">
+        <v>43148</v>
+      </c>
+      <c r="K26" s="4">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B27" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B28" s="4">
+        <v>12689</v>
+      </c>
+      <c r="C28" s="4">
+        <v>19376</v>
+      </c>
+      <c r="D28" s="4">
+        <v>24270</v>
+      </c>
+      <c r="E28" s="4">
+        <v>28100</v>
+      </c>
+      <c r="F28" s="4">
+        <v>30663</v>
+      </c>
+      <c r="G28" s="4">
+        <v>19472</v>
+      </c>
+      <c r="H28" s="4">
+        <v>28987</v>
+      </c>
+      <c r="I28" s="4">
+        <v>33002</v>
+      </c>
+      <c r="J28" s="4">
+        <v>37211</v>
+      </c>
+      <c r="K28" s="4">
+        <v>37804</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B29" s="4">
+        <v>13370</v>
+      </c>
+      <c r="C29" s="4">
+        <v>20256</v>
+      </c>
+      <c r="D29" s="4">
+        <v>25905</v>
+      </c>
+      <c r="E29" s="4">
+        <v>28495</v>
+      </c>
+      <c r="F29" s="4">
+        <v>31277</v>
+      </c>
+      <c r="G29" s="4">
+        <v>19700</v>
+      </c>
+      <c r="H29" s="4">
+        <v>28419</v>
+      </c>
+      <c r="I29" s="4">
+        <v>34095</v>
+      </c>
+      <c r="J29" s="4">
+        <v>37500</v>
+      </c>
+      <c r="K29" s="4">
+        <v>39103</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B30" s="4">
+        <v>13502</v>
+      </c>
+      <c r="C30" s="4">
+        <v>20425</v>
+      </c>
+      <c r="D30" s="4">
+        <v>26714</v>
+      </c>
+      <c r="E30" s="4">
+        <v>29448</v>
+      </c>
+      <c r="F30" s="4">
+        <v>32075</v>
+      </c>
+      <c r="G30" s="4">
+        <v>20007</v>
+      </c>
+      <c r="H30" s="4">
+        <v>29660</v>
+      </c>
+      <c r="I30" s="4">
+        <v>34626</v>
+      </c>
+      <c r="J30" s="4">
+        <v>39338</v>
+      </c>
+      <c r="K30" s="4">
+        <v>39420</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B31" s="4">
+        <v>13851</v>
+      </c>
+      <c r="C31" s="4">
+        <v>21258</v>
+      </c>
+      <c r="D31" s="4">
+        <v>26689</v>
+      </c>
+      <c r="E31" s="4">
+        <v>30118</v>
+      </c>
+      <c r="F31" s="4">
+        <v>32002</v>
+      </c>
+      <c r="G31" s="4">
+        <v>20388</v>
+      </c>
+      <c r="H31" s="4">
+        <v>29918</v>
+      </c>
+      <c r="I31" s="4">
+        <v>35787</v>
+      </c>
+      <c r="J31" s="4">
+        <v>38902</v>
+      </c>
+      <c r="K31" s="4">
+        <v>40939</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B32" s="4">
+        <v>13690</v>
+      </c>
+      <c r="C32" s="4">
+        <v>21011</v>
+      </c>
+      <c r="D32" s="4">
+        <v>27507</v>
+      </c>
+      <c r="E32" s="4">
+        <v>30956</v>
+      </c>
+      <c r="F32" s="4">
+        <v>32789</v>
+      </c>
+      <c r="G32" s="4">
+        <v>20071</v>
+      </c>
+      <c r="H32" s="4">
+        <v>30435</v>
+      </c>
+      <c r="I32" s="4">
+        <v>36154</v>
+      </c>
+      <c r="J32" s="4">
+        <v>39278</v>
+      </c>
+      <c r="K32" s="4">
+        <v>41062</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B33" s="4">
+        <v>13568</v>
+      </c>
+      <c r="C33" s="4">
+        <v>21384</v>
+      </c>
+      <c r="D33" s="4">
+        <v>27822</v>
+      </c>
+      <c r="E33" s="4">
+        <v>31348</v>
+      </c>
+      <c r="F33" s="4">
+        <v>33161</v>
+      </c>
+      <c r="G33" s="4">
+        <v>20703</v>
+      </c>
+      <c r="H33" s="4">
+        <v>31241</v>
+      </c>
+      <c r="I33" s="4">
+        <v>36958</v>
+      </c>
+      <c r="J33" s="4">
+        <v>39975</v>
+      </c>
+      <c r="K33" s="4">
+        <v>42172</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B34" s="4">
+        <v>13589</v>
+      </c>
+      <c r="C34" s="4">
+        <v>21041</v>
+      </c>
+      <c r="D34" s="4">
+        <v>27843</v>
+      </c>
+      <c r="E34" s="4">
+        <v>31855</v>
+      </c>
+      <c r="F34" s="4">
+        <v>33952</v>
+      </c>
+      <c r="G34" s="4">
+        <v>20204</v>
+      </c>
+      <c r="H34" s="4">
+        <v>31537</v>
+      </c>
+      <c r="I34" s="4">
+        <v>37429</v>
+      </c>
+      <c r="J34" s="4">
+        <v>40757</v>
+      </c>
+      <c r="K34" s="4">
+        <v>42525</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B35" s="4">
+        <v>13546</v>
+      </c>
+      <c r="C35" s="4">
+        <v>22005</v>
+      </c>
+      <c r="D35" s="4">
+        <v>27374</v>
+      </c>
+      <c r="E35" s="4">
+        <v>32177</v>
+      </c>
+      <c r="F35" s="4">
+        <v>34180</v>
+      </c>
+      <c r="G35" s="4">
+        <v>20441</v>
+      </c>
+      <c r="H35" s="4">
+        <v>31419</v>
+      </c>
+      <c r="I35" s="4">
+        <v>37750</v>
+      </c>
+      <c r="J35" s="4">
+        <v>41383</v>
+      </c>
+      <c r="K35" s="4">
+        <v>43660</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B36" s="4">
+        <v>13386</v>
+      </c>
+      <c r="C36" s="4">
+        <v>21721</v>
+      </c>
+      <c r="D36" s="4">
+        <v>27996</v>
+      </c>
+      <c r="E36" s="4">
+        <v>32524</v>
+      </c>
+      <c r="F36" s="4">
+        <v>34521</v>
+      </c>
+      <c r="G36" s="4">
+        <v>20339</v>
+      </c>
+      <c r="H36" s="4">
+        <v>31694</v>
+      </c>
+      <c r="I36" s="4">
+        <v>38432</v>
+      </c>
+      <c r="J36" s="4">
+        <v>43128</v>
+      </c>
+      <c r="K36" s="4">
+        <v>43722</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B37" s="4">
+        <v>13789</v>
+      </c>
+      <c r="C37" s="4">
+        <v>21467</v>
+      </c>
+      <c r="D37" s="4">
+        <v>27967</v>
+      </c>
+      <c r="E37" s="4">
+        <v>32820</v>
+      </c>
+      <c r="F37" s="4">
+        <v>35202</v>
+      </c>
+      <c r="G37" s="4">
+        <v>20526</v>
+      </c>
+      <c r="H37" s="4">
+        <v>32444</v>
+      </c>
+      <c r="I37" s="4">
+        <v>38923</v>
+      </c>
+      <c r="J37" s="4">
+        <v>44596</v>
+      </c>
+      <c r="K37" s="4">
+        <v>44495</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B38" s="4">
+        <v>13426</v>
+      </c>
+      <c r="C38" s="4">
+        <v>21564</v>
+      </c>
+      <c r="D38" s="4">
+        <v>28094</v>
+      </c>
+      <c r="E38" s="4">
+        <v>32723</v>
+      </c>
+      <c r="F38" s="4">
+        <v>35414</v>
+      </c>
+      <c r="G38" s="4">
+        <v>20074</v>
+      </c>
+      <c r="H38" s="4">
+        <v>32276</v>
+      </c>
+      <c r="I38" s="4">
+        <v>39233</v>
+      </c>
+      <c r="J38" s="4">
+        <v>44286</v>
+      </c>
+      <c r="K38" s="4">
+        <v>46476</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B39" s="4">
+        <v>13582</v>
+      </c>
+      <c r="C39" s="4">
+        <v>21984</v>
+      </c>
+      <c r="D39" s="4">
+        <v>28275</v>
+      </c>
+      <c r="E39" s="4">
+        <v>33642</v>
+      </c>
+      <c r="F39" s="4">
+        <v>35781</v>
+      </c>
+      <c r="G39" s="4">
+        <v>20255</v>
+      </c>
+      <c r="H39" s="4">
+        <v>32743</v>
+      </c>
+      <c r="I39" s="4">
+        <v>40094</v>
+      </c>
+      <c r="J39" s="4">
+        <v>44478</v>
+      </c>
+      <c r="K39" s="4">
+        <v>46764</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B40" s="4">
+        <v>13571</v>
+      </c>
+      <c r="C40" s="4">
+        <v>21636</v>
+      </c>
+      <c r="D40" s="4">
+        <v>28641</v>
+      </c>
+      <c r="E40" s="4">
+        <v>33642</v>
+      </c>
+      <c r="F40" s="4">
+        <v>36029</v>
+      </c>
+      <c r="G40" s="4">
+        <v>20503</v>
+      </c>
+      <c r="H40" s="4">
+        <v>33062</v>
+      </c>
+      <c r="I40" s="4">
+        <v>40399</v>
+      </c>
+      <c r="J40" s="4">
+        <v>45705</v>
+      </c>
+      <c r="K40" s="4">
+        <v>46620</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B41" s="4">
+        <v>13786</v>
+      </c>
+      <c r="C41" s="4">
+        <v>21849</v>
+      </c>
+      <c r="D41" s="4">
+        <v>28561</v>
+      </c>
+      <c r="E41" s="4">
+        <v>33983</v>
+      </c>
+      <c r="F41" s="4">
+        <v>36637</v>
+      </c>
+      <c r="G41" s="4">
+        <v>20263</v>
+      </c>
+      <c r="H41" s="4">
+        <v>33402</v>
+      </c>
+      <c r="I41" s="4">
+        <v>41389</v>
+      </c>
+      <c r="J41" s="4">
+        <v>45336</v>
+      </c>
+      <c r="K41" s="4">
+        <v>47788</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="L1:P1"/>
+    <mergeCell ref="B2:K2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>